--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64103.69982241259</v>
+        <v>12669630.82459957</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64103.69982241259</v>
+        <v>12669630.82459957</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6279.935091966566</v>
+        <v>763703.6848813491</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6279.935091966566</v>
+        <v>763703.6848813491</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266077906.627597</v>
+        <v>51984655.94600502</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10821.89916750351</v>
+        <v>1214790.659939288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20495.9742502813</v>
+        <v>2252116.26003549</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30170.04933305909</v>
+        <v>3289441.860131692</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39891.23145890357</v>
+        <v>4329308.736009548</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49600.53479686929</v>
+        <v>5366811.733099527</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59309.83813483499</v>
+        <v>6404314.730189501</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69019.14147280071</v>
+        <v>7441817.727279475</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78728.44481076641</v>
+        <v>8479320.724369448</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88307.74970631258</v>
+        <v>9470626.361486277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97781.73286500876</v>
+        <v>10506038.06642</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107255.7160237049</v>
+        <v>11541449.77135373</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116658.8040370274</v>
+        <v>12573095.27367397</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126084.0657877236</v>
+        <v>13608122.2709437</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135998.6867603768</v>
+        <v>14570928.66274759</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146187.6609813319</v>
+        <v>15492871.01965336</v>
       </c>
     </row>
   </sheetData>
